--- a/Location Details/E Cedar St , Zionsville, IN 46077_conference.xlsx
+++ b/Location Details/E Cedar St , Zionsville, IN 46077_conference.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21">
@@ -898,7 +898,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E44" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -1402,7 +1402,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>4.1</v>
       </c>
       <c r="E48" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="49">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
